--- a/SMA/home/sama/Reports/pos_neg_reviews.xlsx
+++ b/SMA/home/sama/Reports/pos_neg_reviews.xlsx
@@ -65,9 +65,6 @@
     <t>https://www.google.com/maps/contrib/106642865101698340925?hl=en-IN</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/contrib/112604660265323282259?hl=en-IN</t>
-  </si>
-  <si>
     <t>https://www.google.com/maps/contrib/110742250166868563428?hl=en-IN</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>Great service. All social distancing protocols maintained and extremely hygienic.</t>
   </si>
   <si>
-    <t>This is the best airport in India. Everything is neat and clean. After covid, it has become no human touch airport. You will come, take boarding passes on your own from vending machines and even bag tags. Even foods at KFC and other stalls also you can order through screens installed next to the shops. This is an international airport but it is located at a very long distance from the bangalore city. So it will take 45 to 60 minutes to reach the main city from here by a cab.</t>
-  </si>
-  <si>
     <t>Truly amazed by the hospitality gave by the lounge in this covid-19 circumstance.</t>
   </si>
   <si>
@@ -258,7 +252,13 @@
     <t>Neat clean and luxurious. Safe for handicapped. And also for common man.</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/contrib/112604660265323282259?hl=en-IN</t>
+  </si>
+  <si>
     <t>https://www.google.com/maps/contrib/104833993967126646013?hl=en-IN</t>
+  </si>
+  <si>
+    <t>This is the best airport in India. Everything is neat and clean. After covid, it has become no human touch airport. You will come, take boarding passes on your own from vending machines and even bag tags. Even foods at KFC and other stalls also you can order through screens installed next to the shops. This is an international airport but it is located at a very long distance from the bangalore city. So it will take 45 to 60 minutes to reach the main city from here by a cab.</t>
   </si>
   <si>
     <t>Now there is a new process called as web check in. And we need to get the temperature check 3 to 4 times. There will be no food available in the flights or nearby airport. Wearing masks inside the domestic flights is not that mandatory. No social distancing is followed.</t>
@@ -632,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -659,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -667,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -675,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -691,7 +691,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -699,7 +699,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -707,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -723,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -731,7 +731,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -739,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -747,7 +747,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -755,7 +755,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -763,7 +763,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -771,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -779,7 +779,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -787,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -795,7 +795,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -803,7 +803,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -811,7 +811,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -819,7 +819,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -827,7 +827,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -835,7 +835,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -843,7 +843,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -851,7 +851,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -859,7 +859,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -867,7 +867,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -875,7 +875,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -883,7 +883,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -891,7 +891,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -899,7 +899,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -907,7 +907,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -915,7 +915,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -931,15 +931,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +972,6 @@
     <hyperlink ref="A35" r:id="rId34"/>
     <hyperlink ref="A36" r:id="rId35"/>
     <hyperlink ref="A37" r:id="rId36"/>
-    <hyperlink ref="A38" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -988,7 +979,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1004,15 +995,24 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
